--- a/ResultadoEleicoesDistritos/BRAGA_TERRAS DE BOURO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_TERRAS DE BOURO.xlsx
@@ -597,64 +597,64 @@
         <v>1944</v>
       </c>
       <c r="H2" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="J2" t="n">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T2" t="n">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1221</v>
+        <v>1268</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1260</v>
+        <v>1172</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
